--- a/downloaded_files/GENS249_Lecture-35958.xlsx
+++ b/downloaded_files/GENS249_Lecture-35958.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,24 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1230145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أميرة السيد إسماعيل عبدالحميد الوكيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMIRA ELSAYED ISMAIL ABDELHAMEED ELWAKEEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد احمد عبدالجليل ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohammed Ahmed Abd al-Jaleel</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230156</x:t>
   </x:si>
   <x:si>
@@ -60,6 +78,24 @@
     <x:t>Engy Wael Mostafa Sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بسنت مصطفى عبد الرحمن عبد الباقى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BASSANT MOSTAFA SABDELRAHMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما عاطف محمد عبد الباقى عبد الواحد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Atef Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240026</x:t>
   </x:si>
   <x:si>
@@ -93,6 +129,15 @@
     <x:t>omar muhammad satea ibrahim saeed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد الطاهر علي ابوشحاته</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid El Taher Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230094</x:t>
   </x:si>
   <x:si>
@@ -127,6 +172,15 @@
   </x:si>
   <x:si>
     <x:t>Hana Ahmed Said Abdo Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف وائل محمود مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yousef Wael Mahmoud Sayed Morsy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -242,7 +296,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -542,7 +596,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -550,9 +604,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="26.740625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="41.950625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.310625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -633,7 +687,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45927.0452080208</x:v>
+        <x:v>45927.4617888542</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -665,7 +719,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.0447189815</x:v>
+        <x:v>45927.4185141204</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -697,7 +751,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.0479726852</x:v>
+        <x:v>45927.0452080208</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -725,9 +779,11 @@
       <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45927.0447189815</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -750,16 +806,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.044978044</x:v>
+        <x:v>45927.0479726852</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -782,16 +838,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.0471097222</x:v>
+        <x:v>45927.4145160532</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -814,16 +870,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45927.4144065162</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -846,16 +902,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
+      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45927.0482791667</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -887,7 +941,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.0474319097</x:v>
+        <x:v>45927.044978044</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -919,7 +973,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.0440922801</x:v>
+        <x:v>45927.0471097222</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -951,7 +1005,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.0468114583</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -968,6 +1022,198 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45927.4346565972</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45927.0482791667</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45927.4185873843</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45927.0440922801</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45927.0468114583</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45927.4164883102</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35958.xlsx
+++ b/downloaded_files/GENS249_Lecture-35958.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,6 +87,15 @@
     <x:t>BASSANT MOSTAFA SABDELRAHMAN</x:t>
   </x:si>
   <x:si>
+    <x:t>1210213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنة الله عماد سيد محمد الغول</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jannah Allah Emad Sayed Mohamed Elghoul</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210055</x:t>
   </x:si>
   <x:si>
@@ -154,6 +163,15 @@
   </x:si>
   <x:si>
     <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نوران هشام عبد السميع سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nouran hisham abdulsamei  soliman</x:t>
   </x:si>
   <x:si>
     <x:t>1230274</x:t>
@@ -296,7 +314,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -596,7 +614,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -879,7 +897,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4144065162</x:v>
+        <x:v>45927.8535695602</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -907,9 +925,11 @@
       <x:c r="C9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45927.4144065162</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -932,16 +952,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45927.044978044</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -973,7 +991,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.0471097222</x:v>
+        <x:v>45927.044978044</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1005,7 +1023,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45927.0471097222</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1037,7 +1055,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4346565972</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1069,7 +1087,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.0482791667</x:v>
+        <x:v>45927.4346565972</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1101,7 +1119,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4185873843</x:v>
+        <x:v>45927.0482791667</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1133,7 +1151,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.0440922801</x:v>
+        <x:v>45927.4185873843</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1165,7 +1183,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.0468114583</x:v>
+        <x:v>45927.8899386227</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1197,7 +1215,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4164883102</x:v>
+        <x:v>45927.0440922801</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1214,6 +1232,70 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45927.0468114583</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45927.4164883102</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35958.xlsx
+++ b/downloaded_files/GENS249_Lecture-35958.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>AMIRA ELSAYED ISMAIL ABDELHAMEED ELWAKEEL</x:t>
   </x:si>
   <x:si>
+    <x:t>1230149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم هشام ابراهيم عبد الدايم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Hesham Ibrahim Abdel Dayem</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230012</x:t>
   </x:si>
   <x:si>
@@ -105,12 +114,30 @@
     <x:t>Sama Atef Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف الدين طارق فاروق عبدالعزيز مرزوق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seif Eldein Tarek Farouk Abd El Aziz Marzouk</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240026</x:t>
   </x:si>
   <x:si>
     <x:t>عبدالرحمن محمد شرقاوى محمد</x:t>
   </x:si>
   <x:si>
+    <x:t>4240027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230205</x:t>
   </x:si>
   <x:si>
@@ -138,15 +165,6 @@
     <x:t>omar muhammad satea ibrahim saeed</x:t>
   </x:si>
   <x:si>
-    <x:t>1230077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد الطاهر علي ابوشحاته</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Walid El Taher Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230094</x:t>
   </x:si>
   <x:si>
@@ -154,15 +172,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Abdelhafiz Abdel hameed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين سامى حموده بكر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1210382</x:t>
@@ -314,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -614,7 +623,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -622,7 +631,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.310625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.330625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -737,7 +746,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.4185141204</x:v>
+        <x:v>45928.3130665162</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -769,7 +778,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.0452080208</x:v>
+        <x:v>45927.4185141204</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -801,7 +810,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.0447189815</x:v>
+        <x:v>45927.0452080208</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -833,7 +842,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.0479726852</x:v>
+        <x:v>45927.0447189815</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -865,7 +874,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4145160532</x:v>
+        <x:v>45927.0479726852</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -897,7 +906,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.8535695602</x:v>
+        <x:v>45927.4145160532</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -929,7 +938,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4144065162</x:v>
+        <x:v>45927.8535695602</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -957,9 +966,11 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s"/>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45927.4144065162</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -982,16 +993,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.044978044</x:v>
+        <x:v>45907.4184989583</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1014,16 +1025,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45927.0471097222</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45928.6180462616</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4346565972</x:v>
+        <x:v>45927.044978044</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.0482791667</x:v>
+        <x:v>45927.0471097222</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4185873843</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.8899386227</x:v>
+        <x:v>45927.0482791667</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.0440922801</x:v>
+        <x:v>45927.8899386227</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.0468114583</x:v>
+        <x:v>45927.0440922801</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4164883102</x:v>
+        <x:v>45927.0468114583</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1296,6 +1305,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45927.4164883102</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35958.xlsx
+++ b/downloaded_files/GENS249_Lecture-35958.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Ibrahim Hesham Ibrahim Abdel Dayem</x:t>
   </x:si>
   <x:si>
+    <x:t>1230009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد طارق احمد اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Tarek Ahmed Ismail</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230012</x:t>
   </x:si>
   <x:si>
@@ -123,6 +132,15 @@
     <x:t>Seif Eldein Tarek Farouk Abd El Aziz Marzouk</x:t>
   </x:si>
   <x:si>
+    <x:t>1230053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240026</x:t>
   </x:si>
   <x:si>
@@ -145,6 +163,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Osama Mohamed Mamdouh Nafeh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد حمدى السيد عطيه مندور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Mohammed Hamdy</x:t>
   </x:si>
   <x:si>
     <x:t>1230210</x:t>
@@ -323,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -623,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -631,7 +658,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.330625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="33.730625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -778,7 +805,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4185141204</x:v>
+        <x:v>45928.9304060995</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -810,7 +837,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.0452080208</x:v>
+        <x:v>45927.4185141204</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -842,7 +869,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.0447189815</x:v>
+        <x:v>45927.0452080208</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -874,7 +901,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.0479726852</x:v>
+        <x:v>45927.0447189815</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -906,7 +933,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4145160532</x:v>
+        <x:v>45927.0479726852</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -938,7 +965,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.8535695602</x:v>
+        <x:v>45927.4145160532</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -970,7 +997,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4144065162</x:v>
+        <x:v>45927.8535695602</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1002,7 +1029,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4184989583</x:v>
+        <x:v>45927.4144065162</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1030,9 +1057,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45907.4184989583</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1055,16 +1084,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45928.6180462616</x:v>
+        <x:v>45929.0001292014</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1087,16 +1116,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45927.044978044</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1128,7 +1155,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.0471097222</x:v>
+        <x:v>45928.6180462616</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1160,7 +1187,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45927.044978044</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1192,7 +1219,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.0482791667</x:v>
+        <x:v>45928.9980634259</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1224,7 +1251,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.8899386227</x:v>
+        <x:v>45927.0471097222</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1256,7 +1283,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.0440922801</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1288,7 +1315,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.0468114583</x:v>
+        <x:v>45927.0482791667</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1320,7 +1347,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4164883102</x:v>
+        <x:v>45927.8899386227</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1337,6 +1364,102 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45927.0440922801</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45927.0468114583</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45927.4164883102</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35958.xlsx
+++ b/downloaded_files/GENS249_Lecture-35958.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,6 +114,15 @@
     <x:t>Jannah Allah Emad Sayed Mohamed Elghoul</x:t>
   </x:si>
   <x:si>
+    <x:t>1230175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى يحيى السيد عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Yehia ElSayed Abdullah</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210055</x:t>
   </x:si>
   <x:si>
@@ -190,6 +199,24 @@
   </x:si>
   <x:si>
     <x:t>omar muhammad satea ibrahim saeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر نادر ابراهيم الابياري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Nader Ibrahim Elebiary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم مجدى منير محمود العكام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Magdy Mounir</x:t>
   </x:si>
   <x:si>
     <x:t>1230094</x:t>
@@ -350,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1029,7 +1056,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4144065162</x:v>
+        <x:v>45929.5309884259</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1061,7 +1088,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4184989583</x:v>
+        <x:v>45927.4144065162</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1093,7 +1120,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45929.0001292014</x:v>
+        <x:v>45907.4184989583</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1121,9 +1148,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45929.0001292014</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1146,16 +1175,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45928.6180462616</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1187,7 +1214,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.044978044</x:v>
+        <x:v>45928.6180462616</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1219,7 +1246,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45928.9980634259</x:v>
+        <x:v>45927.044978044</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1251,7 +1278,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.0471097222</x:v>
+        <x:v>45928.9980634259</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1283,7 +1310,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45927.0471097222</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1315,7 +1342,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.0482791667</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1347,7 +1374,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.8899386227</x:v>
+        <x:v>45929.6153693287</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1379,7 +1406,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.0440922801</x:v>
+        <x:v>45929.4225984954</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1411,7 +1438,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.0468114583</x:v>
+        <x:v>45927.0482791667</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1443,7 +1470,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4164883102</x:v>
+        <x:v>45927.8899386227</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1461,16 +1488,112 @@
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
     </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45927.0440922801</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45927.0468114583</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45927.4164883102</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : ----- Time : Tuesday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [20103]20103-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : ----- Time : Tuesday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [20103]20103-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : ----- Time : Tuesday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [20103]20103-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/GENS249_Lecture-35958.xlsx
+++ b/downloaded_files/GENS249_Lecture-35958.xlsx
@@ -1589,11 +1589,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [20103]20103-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [3704]3704-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [20103]20103-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [3704]3704-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [20103]20103-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [3704]3704-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/GENS249_Lecture-35958.xlsx
+++ b/downloaded_files/GENS249_Lecture-35958.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -226,6 +226,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Abdelhafiz Abdel hameed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين سامى حموده بكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1210382</x:t>
@@ -377,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1470,7 +1479,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.8899386227</x:v>
+        <x:v>45928.5785140856</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.0440922801</x:v>
+        <x:v>45927.8899386227</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.0468114583</x:v>
+        <x:v>45927.0440922801</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4164883102</x:v>
+        <x:v>45927.0468114583</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1583,6 +1592,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45927.4164883102</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35958.xlsx
+++ b/downloaded_files/GENS249_Lecture-35958.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Adam Amr Moharram</x:t>
   </x:si>
   <x:si>
+    <x:t>1220226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>الحسين محمد محمود عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elhussien Mohamed Mahmoud Awad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230344</x:t>
   </x:si>
   <x:si>
@@ -121,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Yehia ElSayed Abdullah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روزانا احمد محمد ابراهيم المنجورى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rozana Ahmed Mohamed Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210055</x:t>
@@ -386,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -937,7 +955,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.0447189815</x:v>
+        <x:v>45909.4154279745</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -969,7 +987,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.0479726852</x:v>
+        <x:v>45927.0447189815</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1001,7 +1019,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4145160532</x:v>
+        <x:v>45927.0479726852</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1033,7 +1051,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.8535695602</x:v>
+        <x:v>45927.4145160532</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1065,7 +1083,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45929.5309884259</x:v>
+        <x:v>45927.8535695602</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1097,7 +1115,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4144065162</x:v>
+        <x:v>45929.5309884259</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1129,7 +1147,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4184989583</x:v>
+        <x:v>45907.416055787</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1161,7 +1179,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45929.0001292014</x:v>
+        <x:v>45927.4144065162</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1189,9 +1207,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45907.4184989583</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1214,16 +1234,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45928.6180462616</x:v>
+        <x:v>45929.0001292014</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1246,16 +1266,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45927.044978044</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1287,7 +1305,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45928.9980634259</x:v>
+        <x:v>45928.6180462616</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1319,7 +1337,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.0471097222</x:v>
+        <x:v>45927.044978044</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1351,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.0493556713</x:v>
+        <x:v>45928.9980634259</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1383,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45929.6153693287</x:v>
+        <x:v>45927.0471097222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45929.4225984954</x:v>
+        <x:v>45927.0493556713</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.0482791667</x:v>
+        <x:v>45929.6153693287</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45928.5785140856</x:v>
+        <x:v>45929.4225984954</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.8899386227</x:v>
+        <x:v>45927.0482791667</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.0440922801</x:v>
+        <x:v>45928.5785140856</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.0468114583</x:v>
+        <x:v>45927.8899386227</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1607,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4164883102</x:v>
+        <x:v>45927.0440922801</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1624,6 +1642,70 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45927.0468114583</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45927.4164883102</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS249_Lecture-35958.xlsx
+++ b/downloaded_files/GENS249_Lecture-35958.xlsx
@@ -1712,11 +1712,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [3704]3704-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [20104]20104-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [3704]3704-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [20104]20104-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [3704]3704-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Project Management (GENS249 ) Location : [20104]20104-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/GENS249_Lecture-35958.xlsx
+++ b/downloaded_files/GENS249_Lecture-35958.xlsx
@@ -165,7 +165,7 @@
     <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
   </x:si>
   <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali Rajab</x:t>
   </x:si>
   <x:si>
     <x:t>4240026</x:t>
@@ -270,7 +270,7 @@
     <x:t>نورهان أيمن منصور أحمد ندا</x:t>
   </x:si>
   <x:si>
-    <x:t>Norhan Ayman Mansour Ahmed Nada</x:t>
+    <x:t>NORHAN AYMAN MANSOUR AHMED NADA</x:t>
   </x:si>
   <x:si>
     <x:t>1230126</x:t>
@@ -713,7 +713,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.730625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.250625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
